--- a/models/calculation engines/cbix2/outputs/default/actual_price_determination_from_CBIX_price/nominal_mine_div_index_specifications.xlsx
+++ b/models/calculation engines/cbix2/outputs/default/actual_price_determination_from_CBIX_price/nominal_mine_div_index_specifications.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,9 +550,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
         <v>210000</v>
       </c>
@@ -607,9 +605,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>180000</v>
       </c>
@@ -645,7 +641,7 @@
         <v>0.3625</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09</v>
+        <v>0.08999999999999998</v>
       </c>
       <c r="F4" t="n">
         <v>0.0675</v>
@@ -725,7 +721,7 @@
         <v>0.67</v>
       </c>
       <c r="L5" t="n">
-        <v>94064.31505879021</v>
+        <v>94064.31505879022</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -778,9 +774,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>180000</v>
       </c>
@@ -835,9 +829,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>58450.5100634133</v>
       </c>
@@ -892,9 +884,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>58437.6863446631</v>
       </c>
@@ -949,9 +939,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>180000</v>
       </c>
@@ -1006,11 +994,9 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>58078.4677170219</v>
+        <v>58078.46771702191</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1063,9 +1049,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>66728.452270621</v>
       </c>
@@ -1120,9 +1104,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>180000</v>
       </c>
@@ -1177,9 +1159,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>49428.4831634229</v>
       </c>
@@ -1234,9 +1214,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>51858.2541054451</v>
       </c>
@@ -1291,9 +1269,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>180000</v>
       </c>
@@ -1348,9 +1324,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>180000</v>
       </c>
@@ -1405,9 +1379,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>180000</v>
       </c>
@@ -1462,9 +1434,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>57918.5520361991</v>
       </c>
@@ -1690,15 +1660,13 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>180000</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>MRN wharf</t>
+          <t>Pt_Lisas</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1747,15 +1715,13 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>180000</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Juruti wharf</t>
+          <t>Pt_Lisas</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1804,9 +1770,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>63660.4774535809</v>
       </c>
@@ -1975,15 +1939,13 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>180000</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Rondon do Para wharf</t>
+          <t>Pt_Lisas</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2022,7 +1984,7 @@
         <v>0.189</v>
       </c>
       <c r="H28" t="n">
-        <v>0.008999999999999959</v>
+        <v>0.008999999999999958</v>
       </c>
       <c r="I28" t="n">
         <v>0.08</v>
@@ -2089,9 +2051,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>48582.995951417</v>
       </c>
@@ -2146,9 +2106,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>180000</v>
       </c>
@@ -2203,9 +2161,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>180000</v>
       </c>
@@ -2317,9 +2273,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>69478.9081885856</v>
       </c>
@@ -2342,107 +2296,107 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Amrun HT</t>
+          <t>AMRUN HT</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
         <v>47664</v>
       </c>
       <c r="C34" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.055</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.00500000000000005</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>LT</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>74270.5570291777</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>Amrun HT wharf</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>CBIX HT</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>CBIX HT</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Metro BH1 Xinfa</t>
+          <t>Metro BH1</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
         <v>47664</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.513</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>0.405</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.095</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.051</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.057</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
+        <v>180000</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Metro BH1 wharf</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>CBIX LT</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>CBIX LT</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -2480,9 +2434,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>180000</v>
       </c>
@@ -2537,9 +2489,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>180000</v>
       </c>
@@ -2562,58 +2512,50 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SMB Santou-Houda</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
         <v>47664</v>
       </c>
       <c r="C38" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.055</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.00500000000000005</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>LT</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>180000</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>SMB Santou-Houda wharf</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>CBIX LT</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>CBIX LT</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2651,9 +2593,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>180000</v>
       </c>
@@ -2708,9 +2648,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>180000</v>
       </c>
@@ -2765,9 +2703,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>180000</v>
       </c>
@@ -2822,9 +2758,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>180000</v>
       </c>
@@ -2847,58 +2781,50 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SMB SH no rail capital</t>
+          <t>Weiqiao Self Supply</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
         <v>47664</v>
       </c>
       <c r="C43" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.055</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.00500000000000005</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>LT</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>180000</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>SMB SH no rail capital wharf</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>CBIX LT</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>CBIX LT</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2936,9 +2862,7 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>180000</v>
       </c>
@@ -2961,7 +2885,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SPIC</t>
+          <t>Mokanji</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
@@ -2993,15 +2917,13 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>180000</v>
+        <v>78632.4786324786</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>SPIC wharf</t>
+          <t>Mokanji wharf</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3018,7 +2940,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Mokanji</t>
+          <t>SMB Santou-Houda</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
@@ -3050,15 +2972,13 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>78632.4786324786</v>
+        <v>180000</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Mokanji wharf</t>
+          <t>SMB Santou-Houda wharf</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3067,6 +2987,171 @@
         </is>
       </c>
       <c r="O46" t="inlineStr">
+        <is>
+          <t>CBIX LT</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>CBK Kindia</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.00500000000000005</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>39886.0398860399</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>CBK Kindia wharf</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>CBIX LT</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>CBIX LT</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>SPIC</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.00500000000000005</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>180000</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>SPIC wharf</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>CBIX LT</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>CBIX LT</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>SPIC</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.00500000000000005</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>180000</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>SPIC wharf</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>CBIX LT</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
         <is>
           <t>CBIX LT</t>
         </is>
